--- a/1. Project management/5. Change management plan/AS_PM_ChangeRequestForm_Template.xlsx
+++ b/1. Project management/5. Change management plan/AS_PM_ChangeRequestForm_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request Form For Custome" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="Check5" localSheetId="1">'Change Request Form'!$C$6</definedName>
     <definedName name="Check6" localSheetId="1">'Change Request Form'!$B$13</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +210,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -472,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,50 +475,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,65 +575,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -602,15 +611,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -620,49 +620,40 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2291,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2468,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,49 +2482,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -2573,10 +2564,10 @@
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -2616,32 +2607,32 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2913,7 +2904,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,75 +2916,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3031,15 +3022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3051,76 +3042,76 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="54" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
